--- a/заказы/статистика филиалы/2023/12,23/06,12,23 КИ/дв 06,12,23 млрсч.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/06,12,23 КИ/дв 06,12,23 млрсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\06,12,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\06,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7701C805-977F-4B91-88FF-4BA62D9E8106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6C9F75-9E73-40D3-A07E-75660BA4E620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="269" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AB$74</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -7731,8 +7731,8 @@
   <dimension ref="A1:AC74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T69" sqref="T69"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8206,7 +8206,7 @@
         <v>91.612400000000008</v>
       </c>
       <c r="Q8" s="22">
-        <f t="shared" ref="Q8:Q34" si="10">13*P8-O8-G8</f>
+        <f t="shared" ref="Q8:Q28" si="10">13*P8-O8-G8</f>
         <v>775.95320000000015</v>
       </c>
       <c r="R8" s="22">
